--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2869.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2869.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.201127541978255</v>
+        <v>0.6309176683425903</v>
       </c>
       <c r="B1">
-        <v>2.01249942127498</v>
+        <v>2.343778371810913</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.19474196434021</v>
       </c>
       <c r="D1">
-        <v>2.03503051054041</v>
+        <v>3.788445472717285</v>
       </c>
       <c r="E1">
-        <v>1.20686803350687</v>
+        <v>1.330827951431274</v>
       </c>
     </row>
   </sheetData>
